--- a/Crosswalk/A4_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/A4_UDS4_programmatic_crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\updated_crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAB Neurology\NACC and UDS\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="448">
   <si>
     <t>TEMPLATE - UDS3 REDCap
 Based on Kansas ADRC implementation at https://naccdata.org/adrc-resources/redcap</t>
@@ -377,9 +377,6 @@
     <t>1 | 2</t>
   </si>
   <si>
-    <t>English|Spanish</t>
-  </si>
-  <si>
     <t>0d</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
   </si>
   <si>
     <t>1 | 2 | 3</t>
-  </si>
-  <si>
-    <t>In-person | Remote | Not completed</t>
   </si>
   <si>
     <t>0d1</t>
@@ -1062,12 +1056,6 @@
   </si>
   <si>
     <t>Why is the UDS telephone follow-up protocol being used to obtain data about the subject?</t>
-  </si>
-  <si>
-    <t>Not completed</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>UDS3 T1 specific structured mapping</t>
@@ -2530,6 +2518,9 @@
   </si>
   <si>
     <t>DECISIONS MUST BE MADE FOR:</t>
+  </si>
+  <si>
+    <t>In-person | Remote</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2902,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3076,36 +3067,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3138,6 +3099,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3516,21 +3511,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="A1" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="I1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3562,38 +3557,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D3" s="37"/>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H3" s="37"/>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="38" t="s">
         <v>8</v>
       </c>
@@ -3601,7 +3596,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="37"/>
-      <c r="E4" s="64"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="38" t="s">
         <v>8</v>
       </c>
@@ -3609,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="37"/>
-      <c r="I4" s="64"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="38" t="s">
         <v>10</v>
       </c>
@@ -3618,8 +3613,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
-        <v>410</v>
+      <c r="A5" s="77" t="s">
+        <v>406</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>12</v>
@@ -3628,8 +3623,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="37"/>
-      <c r="E5" s="64" t="s">
-        <v>410</v>
+      <c r="E5" s="77" t="s">
+        <v>406</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>12</v>
@@ -3638,8 +3633,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="37"/>
-      <c r="I5" s="64" t="s">
-        <v>410</v>
+      <c r="I5" s="77" t="s">
+        <v>406</v>
       </c>
       <c r="J5" s="35" t="s">
         <v>14</v>
@@ -3649,57 +3644,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="64"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="40" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="64"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="42" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="42" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="40" t="s">
         <v>19</v>
       </c>
@@ -3707,7 +3702,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="64"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="40" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3710,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="64"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="40" t="s">
         <v>19</v>
       </c>
@@ -3724,32 +3719,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="64"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="64"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="42" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="40" t="s">
         <v>24</v>
       </c>
@@ -3757,24 +3752,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="64"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="40" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="40" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="42" t="s">
         <v>26</v>
       </c>
@@ -3782,7 +3777,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="42" t="s">
         <v>26</v>
       </c>
@@ -3790,7 +3785,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="64"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="42" t="s">
         <v>26</v>
       </c>
@@ -3799,138 +3794,138 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="40" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="64"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="40" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="64"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="40" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="64"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="64"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K13" s="44" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="64"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="38" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="64"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="38" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
-        <v>424</v>
+      <c r="A15" s="77" t="s">
+        <v>420</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>119</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>121</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="64" t="s">
-        <v>424</v>
+      <c r="I15" s="77" t="s">
+        <v>420</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K15" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="40" t="s">
-        <v>125</v>
-      </c>
       <c r="K16" s="41" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="42" t="s">
         <v>30</v>
       </c>
@@ -3938,7 +3933,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="64"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="42" t="s">
         <v>30</v>
       </c>
@@ -3946,7 +3941,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="64"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="42" t="s">
         <v>30</v>
       </c>
@@ -3955,23 +3950,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="46" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D18" s="37"/>
-      <c r="E18" s="64"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="46" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H18" s="37"/>
-      <c r="I18" s="64"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="46" t="s">
         <v>34</v>
       </c>
@@ -3980,53 +3975,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77"/>
+      <c r="B20" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="G19" s="43" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="K20" s="39" t="s">
         <v>431</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4119,38 +4114,38 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E29" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E30" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E31" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E5:E14"/>
     <mergeCell ref="I5:I14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4185,31 +4180,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -4252,16 +4247,16 @@
         <v>54</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>36</v>
@@ -4272,10 +4267,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>58</v>
@@ -4308,30 +4303,30 @@
         <v>59</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
@@ -4365,19 +4360,19 @@
         <v>59</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R4" s="18" t="s">
         <v>59</v>
@@ -4388,10 +4383,10 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
@@ -4424,33 +4419,33 @@
         <v>59</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="S5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>58</v>
@@ -4483,19 +4478,19 @@
         <v>59</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R6" s="18" t="s">
         <v>59</v>
@@ -4506,10 +4501,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>58</v>
@@ -4542,13 +4537,13 @@
         <v>59</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>61</v>
@@ -4565,10 +4560,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>57</v>
@@ -4598,22 +4593,22 @@
         <v>59</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>59</v>
@@ -4624,10 +4619,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>57</v>
@@ -4657,22 +4652,22 @@
         <v>59</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>59</v>
@@ -4683,10 +4678,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>57</v>
@@ -4716,22 +4711,22 @@
         <v>59</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R10" s="18" t="s">
         <v>59</v>
@@ -4742,10 +4737,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>58</v>
@@ -4778,13 +4773,13 @@
         <v>59</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>69</v>
@@ -4801,10 +4796,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>57</v>
@@ -4837,13 +4832,13 @@
         <v>59</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>61</v>
@@ -4860,10 +4855,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>57</v>
@@ -4896,13 +4891,13 @@
         <v>59</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>64</v>
@@ -4914,15 +4909,15 @@
         <v>80</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>57</v>
@@ -4955,33 +4950,33 @@
         <v>59</v>
       </c>
       <c r="M14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="P14" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>58</v>
@@ -5014,33 +5009,33 @@
         <v>59</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="S15" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>58</v>
@@ -5073,30 +5068,30 @@
         <v>59</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
@@ -5130,19 +5125,19 @@
         <v>59</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P17" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R17" s="19" t="s">
         <v>59</v>
@@ -5710,31 +5705,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -5777,10 +5772,10 @@
         <v>54</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>30</v>
@@ -5799,10 +5794,10 @@
     </row>
     <row r="3" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>58</v>
@@ -5832,37 +5827,37 @@
         <v>58</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>58</v>
@@ -5895,13 +5890,13 @@
         <v>59</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>61</v>
@@ -5918,10 +5913,10 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
@@ -5954,33 +5949,33 @@
         <v>59</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>58</v>
@@ -6013,33 +6008,33 @@
         <v>59</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>68</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>57</v>
@@ -6069,22 +6064,22 @@
         <v>59</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R7" s="18" t="s">
         <v>59</v>
@@ -6095,10 +6090,10 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>57</v>
@@ -6128,22 +6123,22 @@
         <v>59</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>71</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>59</v>
@@ -6154,10 +6149,10 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>57</v>
@@ -6187,22 +6182,22 @@
         <v>59</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>59</v>
@@ -6213,10 +6208,10 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>58</v>
@@ -6249,13 +6244,13 @@
         <v>59</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>69</v>
@@ -6272,10 +6267,10 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>57</v>
@@ -6308,13 +6303,13 @@
         <v>59</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>61</v>
@@ -6331,10 +6326,10 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>57</v>
@@ -6367,13 +6362,13 @@
         <v>59</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>64</v>
@@ -6385,15 +6380,15 @@
         <v>80</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>57</v>
@@ -6426,33 +6421,33 @@
         <v>59</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>58</v>
@@ -6485,33 +6480,33 @@
         <v>59</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P14" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>58</v>
@@ -6544,25 +6539,25 @@
         <v>59</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N15" s="19">
         <v>1</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="16"/>
@@ -6571,7 +6566,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="18" t="s">
@@ -6605,19 +6600,19 @@
         <v>59</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R16" s="59" t="s">
         <v>59</v>
@@ -6632,7 +6627,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
@@ -6666,19 +6661,19 @@
         <v>59</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N17" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="P17" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R17" s="59" t="s">
         <v>59</v>
@@ -6693,7 +6688,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
@@ -6727,13 +6722,13 @@
         <v>59</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>61</v>
@@ -7420,31 +7415,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7484,13 +7479,13 @@
         <v>28</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>30</v>
@@ -7507,10 +7502,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>58</v>
@@ -7543,13 +7538,13 @@
         <v>59</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N3" s="18" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>61</v>
@@ -7566,10 +7561,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>58</v>
@@ -7602,13 +7597,13 @@
         <v>59</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>63</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>64</v>
@@ -7625,10 +7620,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
@@ -7661,13 +7656,13 @@
         <v>59</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>68</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>69</v>
@@ -7684,14 +7679,14 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>58</v>
@@ -7718,33 +7713,33 @@
         <v>59</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>58</v>
@@ -7777,13 +7772,13 @@
         <v>59</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>71</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>64</v>
@@ -7800,10 +7795,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>57</v>
@@ -7833,16 +7828,16 @@
         <v>59</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>75</v>
@@ -7859,10 +7854,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>57</v>
@@ -7895,13 +7890,13 @@
         <v>59</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N9" s="18" t="s">
         <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>61</v>
@@ -7918,10 +7913,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>58</v>
@@ -7954,13 +7949,13 @@
         <v>59</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N10" s="18" t="s">
         <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>64</v>
@@ -7971,16 +7966,16 @@
       <c r="R10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>81</v>
+      <c r="S10" s="87" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>57</v>
@@ -8010,36 +8005,36 @@
         <v>57</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>85</v>
+      <c r="Q11" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="87" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>57</v>
@@ -8069,36 +8064,36 @@
         <v>59</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>57</v>
@@ -8128,16 +8123,16 @@
         <v>58</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>64</v>
@@ -8149,15 +8144,15 @@
         <v>80</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>58</v>
@@ -8190,30 +8185,30 @@
         <v>59</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N14" s="19">
         <v>1</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P14" s="18" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
@@ -8247,19 +8242,19 @@
         <v>59</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>69</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R15" s="19" t="s">
         <v>59</v>
@@ -8780,11 +8775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="A1" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8798,140 +8793,140 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="82" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="82"/>
+      <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="14"/>
@@ -8943,28 +8938,28 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="14"/>
@@ -8976,28 +8971,28 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="14"/>
@@ -10604,7 +10599,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H224"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -10625,78 +10620,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="34"/>
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>98</v>
-      </c>
       <c r="C2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>105</v>
-      </c>
       <c r="F2" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>60</v>
@@ -10708,42 +10703,42 @@
         <v>57</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>30</v>
@@ -10758,16 +10753,16 @@
         <v>57</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>34</v>
@@ -10782,43 +10777,43 @@
         <v>59</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>68</v>
@@ -10830,42 +10825,42 @@
         <v>57</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F10" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>30</v>
@@ -10880,22 +10875,22 @@
         <v>57</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>65</v>
@@ -10904,1494 +10899,1494 @@
         <v>59</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F15" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F16" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F26" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F27" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F28" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F29" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G29" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F31" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F32" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F33" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F34" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D35" s="49" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F35" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F36" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F37" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F38" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D39" s="49" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F39" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F40" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H40" s="18"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F41" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F42" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F43" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F44" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="50" t="s">
         <v>252</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>254</v>
       </c>
       <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C46" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="50" t="s">
         <v>252</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>254</v>
       </c>
       <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F47" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F48" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F49" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F50" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F51" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F52" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G52" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H52" s="18"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F53" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H53" s="18"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F54" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G54" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F55" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G55" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E56" s="49" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F56" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G56" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E57" s="49" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F57" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G57" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E58" s="49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F58" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G58" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E59" s="49" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F59" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G59" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E60" s="49" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F60" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G60" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F61" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G61" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E62" s="49" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F62" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G62" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H62" s="18"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D63" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E63" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="E63" s="49" t="s">
-        <v>335</v>
-      </c>
       <c r="F63" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G63" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E64" s="49" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F64" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H64" s="18"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E65" s="49" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F65" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G65" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E66" s="49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F66" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G66" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H66" s="18"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F67" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G67" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H67" s="18"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E68" s="49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F68" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H68" s="18"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E69" s="49" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F69" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G69" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H69" s="18"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E70" s="49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F70" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G70" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C71" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="50" t="s">
         <v>252</v>
-      </c>
-      <c r="D71" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="E71" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="F71" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" s="50" t="s">
-        <v>254</v>
       </c>
       <c r="H71" s="18"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F72" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G72" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H72" s="18"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E73" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F73" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G73" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H73" s="18"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E74" s="49" t="s">
         <v>68</v>
@@ -12400,42 +12395,42 @@
         <v>57</v>
       </c>
       <c r="G74" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E75" s="49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F75" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G75" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H75" s="18"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>30</v>
@@ -12450,16 +12445,16 @@
         <v>57</v>
       </c>
       <c r="G76" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H76" s="18"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>34</v>
@@ -12474,94 +12469,94 @@
         <v>59</v>
       </c>
       <c r="G77" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H77" s="18"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F78" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G78" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="D79" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="E79" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G79" s="50" t="s">
-        <v>259</v>
-      </c>
       <c r="H79" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E80" s="49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F80" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G80" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>30</v>
@@ -12570,233 +12565,233 @@
         <v>61</v>
       </c>
       <c r="E81" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F81" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G81" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E82" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F82" s="50" t="s">
         <v>59</v>
       </c>
       <c r="G82" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E83" s="49" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F83" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G83" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D84" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E84" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F84" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G84" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E85" s="49" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F85" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G85" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C86" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="E86" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F86" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G86" s="50" t="s">
-        <v>254</v>
-      </c>
       <c r="H86" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C87" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="E87" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="F87" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="50" t="s">
-        <v>254</v>
-      </c>
       <c r="H87" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C88" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="E88" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="D88" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="E88" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="F88" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G88" s="50" t="s">
-        <v>254</v>
-      </c>
       <c r="H88" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F89" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G89" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H89" s="18"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>63</v>
@@ -12808,42 +12803,42 @@
         <v>57</v>
       </c>
       <c r="G90" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E91" s="49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F91" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G91" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H91" s="18"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>30</v>
@@ -12858,22 +12853,22 @@
         <v>57</v>
       </c>
       <c r="G92" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H92" s="18"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E93" s="49" t="s">
         <v>72</v>
@@ -12882,94 +12877,94 @@
         <v>59</v>
       </c>
       <c r="G93" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H93" s="18"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F94" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G94" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H94" s="18"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="50" t="s">
         <v>252</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G95" s="50" t="s">
-        <v>254</v>
       </c>
       <c r="H95" s="18"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E96" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F96" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G96" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H96" s="18"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E97" s="49" t="s">
         <v>74</v>
@@ -12978,48 +12973,48 @@
         <v>57</v>
       </c>
       <c r="G97" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F98" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G98" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C99" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="49" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>75</v>
@@ -13028,22 +13023,22 @@
         <v>57</v>
       </c>
       <c r="G99" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H99" s="18"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D100" s="49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>76</v>
@@ -13052,72 +13047,72 @@
         <v>59</v>
       </c>
       <c r="G100" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H100" s="18"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D101" s="49" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F101" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G101" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E102" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F102" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G102" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H102" s="18"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E103" s="49" t="s">
         <v>77</v>
@@ -13126,42 +13121,42 @@
         <v>57</v>
       </c>
       <c r="G103" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E104" s="49" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F104" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G104" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H104" s="18"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>30</v>
@@ -13176,16 +13171,16 @@
         <v>57</v>
       </c>
       <c r="G105" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H105" s="18"/>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>34</v>
@@ -13200,46 +13195,46 @@
         <v>59</v>
       </c>
       <c r="G106" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H106" s="18"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E107" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F107" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G107" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H107" s="18"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E108" s="49" t="s">
         <v>78</v>
@@ -13248,42 +13243,42 @@
         <v>57</v>
       </c>
       <c r="G108" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E109" s="49" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F109" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G109" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>30</v>
@@ -13298,16 +13293,16 @@
         <v>57</v>
       </c>
       <c r="G110" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H110" s="18"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>34</v>
@@ -13322,184 +13317,184 @@
         <v>59</v>
       </c>
       <c r="G111" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H111" s="18"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E112" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F112" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G112" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H112" s="18"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F113" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G113" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H113" s="18"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E114" s="49" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F114" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G114" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H114" s="18"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E115" s="49" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F115" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G115" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H115" s="18"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E116" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F116" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G116" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C117" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F117" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G117" s="50" t="s">
         <v>257</v>
-      </c>
-      <c r="D117" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F117" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G117" s="50" t="s">
-        <v>259</v>
       </c>
       <c r="H117" s="18"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D118" s="51" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E118" s="49" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F118" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G118" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H118" s="18"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>30</v>
@@ -13514,949 +13509,921 @@
         <v>57</v>
       </c>
       <c r="G119" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H119" s="18"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E120" s="49" t="s">
-        <v>83</v>
+        <v>146</v>
+      </c>
+      <c r="E120" s="88" t="s">
+        <v>79</v>
       </c>
       <c r="F120" s="50" t="s">
         <v>59</v>
       </c>
       <c r="G120" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H120" s="18"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F121" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G121" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F122" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G122" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E123" s="49" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F123" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G123" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H123" s="18"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D124" s="49" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="E124" s="49" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="F124" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G124" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H124" s="18"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="E125" s="49" t="s">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="F125" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G125" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H125" s="18"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E126" s="49" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F126" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G126" s="50" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H126" s="18"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="E127" s="49" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="F127" s="50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G127" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H127" s="18"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D128" s="49" t="s">
-        <v>64</v>
+        <v>253</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="E128" s="49" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F128" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G128" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H128" s="18"/>
+        <v>252</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129" s="49" t="s">
-        <v>148</v>
+        <v>253</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="E129" s="49" t="s">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="F129" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G129" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="H129" s="18"/>
+        <v>257</v>
+      </c>
+      <c r="H129" s="18" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E130" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F130" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G130" s="50" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E131" s="49" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F131" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G131" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="F132" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G132" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>134</v>
+        <v>250</v>
+      </c>
+      <c r="D133" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F133" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G133" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>134</v>
+        <v>250</v>
+      </c>
+      <c r="D134" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F134" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G134" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D135" s="49" t="s">
         <v>57</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F135" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G135" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D136" s="49" t="s">
         <v>57</v>
       </c>
       <c r="E136" s="49" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F136" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G136" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D137" s="49" t="s">
         <v>57</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F137" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G137" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="F138" s="50" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="G138" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D139" s="49" t="s">
-        <v>57</v>
+        <v>265</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="F139" s="50" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="G139" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D140" s="49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>144</v>
+        <v>438</v>
       </c>
       <c r="F140" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="D141" s="49" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F141" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G141" s="50" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="D142" s="49" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="F142" s="50" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="G142" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="H142" s="18" t="s">
-        <v>266</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H142" s="18"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="D143" s="49" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="F143" s="50" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="G143" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="D144" s="49" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
       <c r="E144" s="49" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="F144" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G144" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="H144" s="18"/>
+        <v>252</v>
+      </c>
+      <c r="H144" s="18" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D145" s="49" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="E145" s="49" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="F145" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G145" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>266</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="H145" s="18"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C146" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D146" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G146" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="H146" s="18"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F147" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G147" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="H147" s="18"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D146" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E146" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F146" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G146" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H146" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C147" s="18" t="s">
+      <c r="D148" s="54">
+        <v>1</v>
+      </c>
+      <c r="E148" s="54">
+        <v>1</v>
+      </c>
+      <c r="F148" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G148" s="53" t="s">
         <v>252</v>
-      </c>
-      <c r="D147" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="E147" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="F147" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G147" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="H147" s="18"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D148" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="E148" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="F148" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G148" s="50" t="s">
-        <v>259</v>
       </c>
       <c r="H148" s="18"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B149" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D149" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>144</v>
+        <v>254</v>
+      </c>
+      <c r="D149" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E149" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="F149" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G149" s="53" t="s">
-        <v>254</v>
-      </c>
+      <c r="G149" s="53"/>
       <c r="H149" s="18"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B150" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D150" s="54">
-        <v>1</v>
-      </c>
-      <c r="E150" s="54">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="F150" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G150" s="53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H150" s="18"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D151" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E151" s="55" t="s">
-        <v>236</v>
+        <v>34</v>
+      </c>
+      <c r="D151" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E151" s="56" t="s">
+        <v>146</v>
       </c>
       <c r="F151" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G151" s="53"/>
+      <c r="G151" s="53" t="s">
+        <v>252</v>
+      </c>
       <c r="H151" s="18"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E152" s="18" t="s">
-        <v>64</v>
+        <v>253</v>
+      </c>
+      <c r="D152" s="54">
+        <v>0</v>
+      </c>
+      <c r="E152" s="54">
+        <v>0</v>
       </c>
       <c r="F152" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G152" s="53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H152" s="18"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D153" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="E153" s="56" t="s">
-        <v>148</v>
+        <v>253</v>
+      </c>
+      <c r="D153" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E153" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="F153" s="50" t="s">
         <v>57</v>
       </c>
       <c r="G153" s="53" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H153" s="18"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B154" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D154" s="54">
-        <v>0</v>
-      </c>
-      <c r="E154" s="54">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E154" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="F154" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G154" s="53" t="s">
-        <v>254</v>
-      </c>
+      <c r="G154" s="53"/>
       <c r="H154" s="18"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B155" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D155" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" s="49" t="s">
-        <v>134</v>
+        <v>250</v>
+      </c>
+      <c r="D155" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E155" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F155" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G155" s="53" t="s">
-        <v>254</v>
-      </c>
+      <c r="G155" s="53"/>
       <c r="H155" s="18"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B156" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="E156" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F156" s="50" t="s">
-        <v>57</v>
-      </c>
+      <c r="A156" s="52"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
       <c r="G156" s="53"/>
       <c r="H156" s="18"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B157" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D157" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="E157" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F157" s="50" t="s">
-        <v>57</v>
-      </c>
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
       <c r="G157" s="53"/>
       <c r="H157" s="18"/>
     </row>
@@ -14464,7 +14431,7 @@
       <c r="A158" s="52"/>
       <c r="B158" s="52"/>
       <c r="C158" s="56"/>
-      <c r="D158" s="50"/>
+      <c r="D158" s="18"/>
       <c r="E158" s="50"/>
       <c r="F158" s="50"/>
       <c r="G158" s="53"/>
@@ -14474,8 +14441,8 @@
       <c r="A159" s="52"/>
       <c r="B159" s="52"/>
       <c r="C159" s="56"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="50"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
       <c r="F159" s="50"/>
       <c r="G159" s="53"/>
       <c r="H159" s="18"/>
@@ -14494,8 +14461,8 @@
       <c r="A161" s="52"/>
       <c r="B161" s="52"/>
       <c r="C161" s="56"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="56"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="50"/>
       <c r="F161" s="50"/>
       <c r="G161" s="53"/>
       <c r="H161" s="18"/>
@@ -14522,20 +14489,20 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="52"/>
-      <c r="B164" s="52"/>
+      <c r="B164" s="56"/>
       <c r="C164" s="56"/>
       <c r="D164" s="18"/>
-      <c r="E164" s="50"/>
+      <c r="E164" s="18"/>
       <c r="F164" s="50"/>
       <c r="G164" s="53"/>
       <c r="H164" s="18"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="52"/>
-      <c r="B165" s="52"/>
+      <c r="B165" s="56"/>
       <c r="C165" s="56"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="50"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="57"/>
       <c r="F165" s="50"/>
       <c r="G165" s="53"/>
       <c r="H165" s="18"/>
@@ -14544,8 +14511,8 @@
       <c r="A166" s="52"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
+      <c r="D166" s="56"/>
+      <c r="E166" s="56"/>
       <c r="F166" s="50"/>
       <c r="G166" s="53"/>
       <c r="H166" s="18"/>
@@ -14554,8 +14521,8 @@
       <c r="A167" s="52"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
-      <c r="D167" s="57"/>
-      <c r="E167" s="57"/>
+      <c r="D167" s="56"/>
+      <c r="E167" s="18"/>
       <c r="F167" s="50"/>
       <c r="G167" s="53"/>
       <c r="H167" s="18"/>
@@ -14574,8 +14541,7 @@
       <c r="A169" s="52"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
-      <c r="D169" s="56"/>
-      <c r="E169" s="18"/>
+      <c r="D169" s="18"/>
       <c r="F169" s="50"/>
       <c r="G169" s="53"/>
       <c r="H169" s="18"/>
@@ -14584,26 +14550,27 @@
       <c r="A170" s="52"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
-      <c r="D170" s="56"/>
-      <c r="E170" s="56"/>
+      <c r="D170" s="18"/>
       <c r="F170" s="50"/>
       <c r="G170" s="53"/>
       <c r="H170" s="18"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="52"/>
-      <c r="B171" s="56"/>
+      <c r="A171" s="58"/>
+      <c r="B171" s="55"/>
       <c r="C171" s="56"/>
       <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
       <c r="F171" s="50"/>
       <c r="G171" s="53"/>
       <c r="H171" s="18"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="52"/>
-      <c r="B172" s="56"/>
+      <c r="A172" s="58"/>
+      <c r="B172" s="55"/>
       <c r="C172" s="56"/>
-      <c r="D172" s="18"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="57"/>
       <c r="F172" s="50"/>
       <c r="G172" s="53"/>
       <c r="H172" s="18"/>
@@ -14612,8 +14579,8 @@
       <c r="A173" s="58"/>
       <c r="B173" s="55"/>
       <c r="C173" s="56"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="56"/>
       <c r="F173" s="50"/>
       <c r="G173" s="53"/>
       <c r="H173" s="18"/>
@@ -14622,8 +14589,8 @@
       <c r="A174" s="58"/>
       <c r="B174" s="55"/>
       <c r="C174" s="56"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="57"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="18"/>
       <c r="F174" s="50"/>
       <c r="G174" s="53"/>
       <c r="H174" s="18"/>
@@ -14642,8 +14609,7 @@
       <c r="A176" s="58"/>
       <c r="B176" s="55"/>
       <c r="C176" s="56"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="18"/>
+      <c r="D176" s="18"/>
       <c r="F176" s="50"/>
       <c r="G176" s="53"/>
       <c r="H176" s="18"/>
@@ -14652,8 +14618,7 @@
       <c r="A177" s="58"/>
       <c r="B177" s="55"/>
       <c r="C177" s="56"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="56"/>
+      <c r="D177" s="18"/>
       <c r="F177" s="50"/>
       <c r="G177" s="53"/>
       <c r="H177" s="18"/>
@@ -14681,6 +14646,7 @@
       <c r="B180" s="55"/>
       <c r="C180" s="56"/>
       <c r="D180" s="18"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="50"/>
       <c r="G180" s="53"/>
       <c r="H180" s="18"/>
@@ -14689,7 +14655,8 @@
       <c r="A181" s="58"/>
       <c r="B181" s="55"/>
       <c r="C181" s="56"/>
-      <c r="D181" s="18"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
       <c r="F181" s="50"/>
       <c r="G181" s="53"/>
       <c r="H181" s="18"/>
@@ -14698,8 +14665,8 @@
       <c r="A182" s="58"/>
       <c r="B182" s="55"/>
       <c r="C182" s="56"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="2"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
       <c r="F182" s="50"/>
       <c r="G182" s="53"/>
       <c r="H182" s="18"/>
@@ -14708,8 +14675,8 @@
       <c r="A183" s="58"/>
       <c r="B183" s="55"/>
       <c r="C183" s="56"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
+      <c r="D183" s="55"/>
+      <c r="E183" s="18"/>
       <c r="F183" s="50"/>
       <c r="G183" s="53"/>
       <c r="H183" s="18"/>
@@ -14718,9 +14685,8 @@
       <c r="A184" s="58"/>
       <c r="B184" s="55"/>
       <c r="C184" s="56"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="55"/>
-      <c r="F184" s="50"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
       <c r="G184" s="53"/>
       <c r="H184" s="18"/>
     </row>
@@ -14728,9 +14694,6 @@
       <c r="A185" s="58"/>
       <c r="B185" s="55"/>
       <c r="C185" s="56"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="50"/>
       <c r="G185" s="53"/>
       <c r="H185" s="18"/>
     </row>
@@ -14738,8 +14701,6 @@
       <c r="A186" s="58"/>
       <c r="B186" s="55"/>
       <c r="C186" s="56"/>
-      <c r="D186" s="56"/>
-      <c r="E186" s="56"/>
       <c r="G186" s="53"/>
       <c r="H186" s="18"/>
     </row>
@@ -14817,6 +14778,9 @@
       <c r="A197" s="58"/>
       <c r="B197" s="55"/>
       <c r="C197" s="56"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="50"/>
       <c r="G197" s="53"/>
       <c r="H197" s="18"/>
     </row>
@@ -14824,6 +14788,9 @@
       <c r="A198" s="58"/>
       <c r="B198" s="55"/>
       <c r="C198" s="56"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="54"/>
+      <c r="F198" s="50"/>
       <c r="G198" s="53"/>
       <c r="H198" s="18"/>
     </row>
@@ -14831,8 +14798,8 @@
       <c r="A199" s="58"/>
       <c r="B199" s="55"/>
       <c r="C199" s="56"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="2"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
       <c r="F199" s="50"/>
       <c r="G199" s="53"/>
       <c r="H199" s="18"/>
@@ -14841,8 +14808,8 @@
       <c r="A200" s="58"/>
       <c r="B200" s="55"/>
       <c r="C200" s="56"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="18"/>
       <c r="F200" s="50"/>
       <c r="G200" s="53"/>
       <c r="H200" s="18"/>
@@ -14851,9 +14818,8 @@
       <c r="A201" s="58"/>
       <c r="B201" s="55"/>
       <c r="C201" s="56"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="50"/>
+      <c r="D201" s="56"/>
+      <c r="E201" s="56"/>
       <c r="G201" s="53"/>
       <c r="H201" s="18"/>
     </row>
@@ -14861,9 +14827,6 @@
       <c r="A202" s="58"/>
       <c r="B202" s="55"/>
       <c r="C202" s="56"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="18"/>
-      <c r="F202" s="50"/>
       <c r="G202" s="53"/>
       <c r="H202" s="18"/>
     </row>
@@ -14871,8 +14834,6 @@
       <c r="A203" s="58"/>
       <c r="B203" s="55"/>
       <c r="C203" s="56"/>
-      <c r="D203" s="56"/>
-      <c r="E203" s="56"/>
       <c r="G203" s="53"/>
       <c r="H203" s="18"/>
     </row>
@@ -14947,25 +14908,29 @@
       <c r="H213" s="18"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="58"/>
+      <c r="A214" s="55"/>
       <c r="B214" s="55"/>
       <c r="C214" s="56"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="50"/>
       <c r="G214" s="53"/>
-      <c r="H214" s="18"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="58"/>
+      <c r="A215" s="55"/>
       <c r="B215" s="55"/>
       <c r="C215" s="56"/>
+      <c r="D215" s="57"/>
+      <c r="E215" s="57"/>
+      <c r="F215" s="50"/>
       <c r="G215" s="53"/>
-      <c r="H215" s="18"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="55"/>
       <c r="B216" s="55"/>
       <c r="C216" s="56"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
+      <c r="D216" s="55"/>
+      <c r="E216" s="55"/>
       <c r="F216" s="50"/>
       <c r="G216" s="53"/>
     </row>
@@ -14973,8 +14938,8 @@
       <c r="A217" s="55"/>
       <c r="B217" s="55"/>
       <c r="C217" s="56"/>
-      <c r="D217" s="57"/>
-      <c r="E217" s="57"/>
+      <c r="D217" s="56"/>
+      <c r="E217" s="18"/>
       <c r="F217" s="50"/>
       <c r="G217" s="53"/>
     </row>
@@ -14982,8 +14947,8 @@
       <c r="A218" s="55"/>
       <c r="B218" s="55"/>
       <c r="C218" s="56"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="55"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
       <c r="F218" s="50"/>
       <c r="G218" s="53"/>
     </row>
@@ -14991,8 +14956,7 @@
       <c r="A219" s="55"/>
       <c r="B219" s="55"/>
       <c r="C219" s="56"/>
-      <c r="D219" s="56"/>
-      <c r="E219" s="18"/>
+      <c r="D219" s="18"/>
       <c r="F219" s="50"/>
       <c r="G219" s="53"/>
     </row>
@@ -15000,8 +14964,7 @@
       <c r="A220" s="55"/>
       <c r="B220" s="55"/>
       <c r="C220" s="56"/>
-      <c r="D220" s="56"/>
-      <c r="E220" s="56"/>
+      <c r="D220" s="18"/>
       <c r="F220" s="50"/>
       <c r="G220" s="53"/>
     </row>
@@ -15020,22 +14983,6 @@
       <c r="D222" s="18"/>
       <c r="F222" s="50"/>
       <c r="G222" s="53"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="55"/>
-      <c r="B223" s="55"/>
-      <c r="C223" s="56"/>
-      <c r="D223" s="18"/>
-      <c r="F223" s="50"/>
-      <c r="G223" s="53"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="55"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="56"/>
-      <c r="D224" s="18"/>
-      <c r="F224" s="50"/>
-      <c r="G224" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15060,708 +15007,708 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.140625" style="85" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="85" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" style="73" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" style="73" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="85" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="85"/>
+    <col min="1" max="2" width="18.140625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="63" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="71" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="75" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="75"/>
     <col min="9" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="61"/>
-      <c r="H1" s="72"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="E2" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>126</v>
+      <c r="F2" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>124</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>445</v>
-      </c>
-      <c r="G3" s="76" t="s">
+      <c r="A3" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>445</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>446</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="75" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>447</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>261</v>
-      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="78" t="s">
-        <v>447</v>
+      <c r="H7" s="68" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="72"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="72"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="72"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="72"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="72"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="72"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="72"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="72"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="72"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="72"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="62"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="72"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="72"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="62"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="72"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="72"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="62"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="72"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="72"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="72"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="62"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="62"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="72"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="72"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="62"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="72"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="72"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="62"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="72"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="72"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="62"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="72"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="72"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="72"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="72"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="70"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="70"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="72"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="70"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="62"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="72"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="70"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="72"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="70"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="70"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="62"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="80"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="72"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="70"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="80"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="72"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="70"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="80"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="72"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="70"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="80"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="70"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="80"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="72"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="70"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="72"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="72"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="83"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="72"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="72"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="72"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="80"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="72"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="70"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="62"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="83"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="80"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="70"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="62"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="80"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="72"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="70"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="80"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="72"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="70"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="62"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="80"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="72"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="70"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="62"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="83"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="80"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="72"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="70"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="80"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="72"/>
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="70"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="62"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="80"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="70"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="62"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="80"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="72"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="70"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="62"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="80"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="70"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="62"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="80"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="72"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="70"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="62"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="80"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="70"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="81"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="81"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="71"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="81"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="81"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="71"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="81"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="71"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="84"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="72"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="62"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="71"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="72"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="81"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="62"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="72"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="81"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="62"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="84"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="72"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="81"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="62"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15774,6 +15721,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058BEFEFAD17A4B43A8378381BF28CF4F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61556453c3d4cfbe4714da52328c09a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38934ba0-d0c8-4ff1-b39d-50890708cb62" xmlns:ns3="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xmlns:ns4="ab274330-b409-4ff8-b8ad-c1dc18cc66a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8714ab872510242edcc52d3716bf4cc" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
@@ -16027,27 +15994,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D119A99A-D7B3-4A85-9CC5-EF8C4A685F8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
+    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49718EC5-9792-458A-B35A-E35C856C56BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB911B8A-993C-481D-8A0C-05F188957AC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16065,23 +16031,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49718EC5-9792-458A-B35A-E35C856C56BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D119A99A-D7B3-4A85-9CC5-EF8C4A685F8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="38934ba0-d0c8-4ff1-b39d-50890708cb62"/>
-    <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>